--- a/biology/Zoologie/Diane_(papillon)/Diane_(papillon).xlsx
+++ b/biology/Zoologie/Diane_(papillon)/Diane_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zerynthia polyxena
 La Diane ou Thaïs (Zerynthia polyxena) est une espèce de lépidoptères (papillons) de la famille des Papilionidae et la sous-famille des Parnassiinae. Présent dans le Sud de l'Europe et l'Ouest de l'Asie, cet insecte est strictement protégé sur l'ensemble du territoire français.
@@ -514,15 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-La Diane a une longueur de l'aile antérieure (LAA) de 23 à 26 mm. Le dessus des ailes est jaune pâle à plus foncé marqué de bandes et de carrés noirs. Les ailes postérieures sont ornées de lunules bleues plus ou moins marquées. Le revers de ses ailes antérieures est marqué de taches rouges.
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Diane a une longueur de l'aile antérieure (LAA) de 23 à 26 mm. Le dessus des ailes est jaune pâle à plus foncé marqué de bandes et de carrés noirs. Les ailes postérieures sont ornées de lunules bleues plus ou moins marquées. Le revers de ses ailes antérieures est marqué de taches rouges.
 Zerynthia polyxena cassandra est plus sombre[réf. souhaitée].
 			♂  Montferrier-sur-Lez MHNT.
 			♂  △.
 			♀.
 			♀ △.
-Premiers stades
-La Diane pond ses œufs seuls ou par petits paquets sur le revers des feuilles des plantes hôtes. La chenille est grisâtre à marron clair avec quatre rangées de scolis épineux noirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premiers stades</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Diane pond ses œufs seuls ou par petits paquets sur le revers des feuilles des plantes hôtes. La chenille est grisâtre à marron clair avec quatre rangées de scolis épineux noirs.
 La nymphose s’effectue sur une tige, une écorce ou au revers d’une pierre.
 			Deux œufs de Diane fixés au revers d'une feuille d'aristoloche à feuilles rondes Aristolochia rotunda.
 			Les petites chenilles sont noires dans un premier temps
@@ -530,42 +582,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Diane_(papillon)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La Diane hiverne à l’état de chrysalide. Elle vole de fin mars à fin mai selon la situation géographique.
-Il n'y a qu'une seule génération par an.
-Plantes hôtes
-Les plantes hôtes de la Diane sont du genre Aristolochia : aristoloche à feuille ronde, (Aristolochia rotunda), aristoloche clématite, (Aristolochia clematitis), aristoloche pâle, (Aristolochia pallida) et aristoloche pistoloche (Aristolochia pistolochia).
-L'aristoloche à feuille ronde semble être son espèce de prédilection.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -587,14 +603,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zerynthia polyxena est présente dans le Sud de l'Europe (par exemple en France, Italie, Grèce, Hongrie, Slovaquie et Tchéquie) et jusqu'en Asie mineure.
-En France, elle est présente dans quatorze départements du pourtour méditerranéen[1].
-Elle affectionne particulièrement les zones humides, notamment les bords de rivière et de torrent. On l'aperçoit aussi dans les zones cultivées, les lieux broussailleux tel que les friches, et les escarpements rocheux, et la garrigue, de 0 à 1 700 mètres mais principalement à moins de 900 mètres.
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Diane hiverne à l’état de chrysalide. Elle vole de fin mars à fin mai selon la situation géographique.
+Il n'y a qu'une seule génération par an.
 </t>
         </is>
       </c>
@@ -620,24 +641,168 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la Diane sont du genre Aristolochia : aristoloche à feuille ronde, (Aristolochia rotunda), aristoloche clématite, (Aristolochia clematitis), aristoloche pâle, (Aristolochia pallida) et aristoloche pistoloche (Aristolochia pistolochia).
+L'aristoloche à feuille ronde semble être son espèce de prédilection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zerynthia polyxena est présente dans le Sud de l'Europe (par exemple en France, Italie, Grèce, Hongrie, Slovaquie et Tchéquie) et jusqu'en Asie mineure.
+En France, elle est présente dans quatorze départements du pourtour méditerranéen.
+Elle affectionne particulièrement les zones humides, notamment les bords de rivière et de torrent. On l'aperçoit aussi dans les zones cultivées, les lieux broussailleux tel que les friches, et les escarpements rocheux, et la garrigue, de 0 à 1 700 mètres mais principalement à moins de 900 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Zerynthia polyxena a été décrite par les entomologiste allemands Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775, sous le nom initial de Papilio polyxena[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Zerynthia polyxena a été décrite par les entomologiste allemands Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775, sous le nom initial de Papilio polyxena.
 Sa localité type est Vienne (Autriche).
 Elle est l'espèce type du genre Zerynthia.
-Synonymes
-Papilio hypermnestra Scopoli, 1763,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio hypermnestra Scopoli, 1763,
 Papilio polyxena Denis et Schiffermüller, 1775 Protonyme
 Papilio hypsipyle Schulze, 1776,
-Papilio rumina alba Esper, 1794 [3]
+Papilio rumina alba Esper, 1794 
 Papilio cassandra Geyer, 1828,
 Papilio creusa Meigen, 1829,
-Thais polyxena ab. rufescens Oberthür, 1879 [4]
-Sous-espèces
-Zerynthia polyxena aemiliae (Rocci, 1929) en Italie.
+Thais polyxena ab. rufescens Oberthür, 1879 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Zerynthia polyxena aemiliae (Rocci, 1929) en Italie.
 Zerynthia polyxena albanica (Riemel, 1927) en Albanie.
 Zerynthia polyxena bosniensis (Eisner, 1974) en Bosnie.
 Zerynthia polyxena bryki (Eisner, 1954)
@@ -665,70 +830,74 @@
 Zerynthia polyxena reverdinii (Fruhstorfer, 1908) en Italie.
 Zerynthia polyxena silana (Storace, 1962) en Italie.
 Zerynthia polyxena sontae (Sijaric, 1989) en Serbie.
-Zerynthia polyxena taygetana (Rosen, 1929) en Grèce[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Diane_(papillon)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Zerynthia polyxena taygetana (Rosen, 1929) en Grèce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En français : la Diane, la Thaïs[6].
-En anglais : Southern Festoon[7].
-En allemand : Osterluzeifalter[7].
-En polonais : zygzakowiec kokornakowiec[7].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diane_(papillon)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En français : la Diane, la Thaïs.
+En anglais : Southern Festoon.
+En allemand : Osterluzeifalter.
+En polonais : zygzakowiec kokornakowiec.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diane_(papillon)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zerynthia polyxena est une espèce protégée : elle est inscrite sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne, sur la liste des insectes strictement protégés de l'annexe IV de la Directive Habitats du Conseil de l'Europe concernant la conservation des habitats naturels ainsi que de la faune et de la flore sauvages du 21 mai 1992 ; en France, elle est sur la liste rouge des insectes de France métropolitaine : l'arrêté du 23 avril 2007, article 2, abrogeant l'arrêté du 22 juillet 1993, fixe la liste des insectes protégés sur l'ensemble du territoire français métropolitain[8] et les modalités de leur protection, qui interdit notamment « sur les parties du territoire métropolitain où l'espèce est présente ainsi que dans l'aire de déplacement naturel des noyaux de populations existants, la destruction, l'altération ou la dégradation des sites de reproduction et des aires de repos des animaux. Ces interdictions s'appliquent aux éléments physiques ou biologiques réputés nécessaires à la reproduction ou au repos de l'espèce considérée, aussi longtemps qu'ils sont effectivement utilisés ou utilisables au cours des cycles successifs de reproduction ou de repos de cette espèce et pour autant que la destruction, l'altération ou la dégradation remette en cause le bon accomplissement de ces cycles biologiques. »
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zerynthia polyxena est une espèce protégée : elle est inscrite sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne, sur la liste des insectes strictement protégés de l'annexe IV de la Directive Habitats du Conseil de l'Europe concernant la conservation des habitats naturels ainsi que de la faune et de la flore sauvages du 21 mai 1992 ; en France, elle est sur la liste rouge des insectes de France métropolitaine : l'arrêté du 23 avril 2007, article 2, abrogeant l'arrêté du 22 juillet 1993, fixe la liste des insectes protégés sur l'ensemble du territoire français métropolitain et les modalités de leur protection, qui interdit notamment « sur les parties du territoire métropolitain où l'espèce est présente ainsi que dans l'aire de déplacement naturel des noyaux de populations existants, la destruction, l'altération ou la dégradation des sites de reproduction et des aires de repos des animaux. Ces interdictions s'appliquent aux éléments physiques ou biologiques réputés nécessaires à la reproduction ou au repos de l'espèce considérée, aussi longtemps qu'ils sont effectivement utilisés ou utilisables au cours des cycles successifs de reproduction ou de repos de cette espèce et pour autant que la destruction, l'altération ou la dégradation remette en cause le bon accomplissement de ces cycles biologiques. »
 </t>
         </is>
       </c>
